--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+50%.xlsx
@@ -69355,6 +69355,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>11.77616666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>442.4694444444444</v>
       </c>
@@ -69410,6 +69413,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.34516666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>438.0905555555556</v>
       </c>
@@ -69465,6 +69471,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.03116666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>438.7466666666667</v>
       </c>
@@ -69520,6 +69529,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.684</v>
+      </c>
       <c r="C5" t="n">
         <v>436.0672222222222</v>
       </c>
@@ -69575,6 +69587,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.43416666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>464.9344444444444</v>
       </c>
@@ -69630,6 +69645,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.84633333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>452.9177777777778</v>
       </c>
@@ -69685,6 +69703,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>15.20366666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>454.33</v>
       </c>
@@ -69740,6 +69761,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>15.2375</v>
+      </c>
       <c r="C9" t="n">
         <v>446.1838888888889</v>
       </c>
@@ -69795,6 +69819,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.19516666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>446.6688888888888</v>
       </c>
@@ -69850,6 +69877,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.05983333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>453.6383333333334</v>
       </c>
@@ -69905,6 +69935,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.90883333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>421.6022222222222</v>
       </c>
@@ -69960,6 +69993,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.84616666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>447.4238888888889</v>
       </c>
@@ -70015,6 +70051,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.46016666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>465.9844444444445</v>
       </c>
@@ -70070,6 +70109,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.20816666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>416.3266666666667</v>
       </c>
@@ -70125,6 +70167,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>15.2115</v>
+      </c>
       <c r="C16" t="n">
         <v>447.9211111111111</v>
       </c>
@@ -70180,6 +70225,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.5155</v>
+      </c>
       <c r="C17" t="n">
         <v>424.0361111111112</v>
       </c>
@@ -70235,6 +70283,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.42933333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>420.3683333333333</v>
       </c>
@@ -70290,6 +70341,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.97783333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>448.9872222222222</v>
       </c>
@@ -70345,6 +70399,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.059</v>
+      </c>
       <c r="C20" t="n">
         <v>442.2927777777778</v>
       </c>
@@ -70400,6 +70457,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.53716666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>413.6288888888889</v>
       </c>
@@ -70455,6 +70515,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>14.48783333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>467.605</v>
       </c>
@@ -70510,6 +70573,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.70683333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>444.2577777777777</v>
       </c>
@@ -70565,6 +70631,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.09833333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>446.8961111111111</v>
       </c>
@@ -70620,6 +70689,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.30216666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>438.0377777777778</v>
       </c>
@@ -70675,6 +70747,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.97016666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>421.3433333333333</v>
       </c>
@@ -70730,6 +70805,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.74633333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>426.5866666666667</v>
       </c>
@@ -70785,6 +70863,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.65916666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>442.3383333333334</v>
       </c>
@@ -70840,6 +70921,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.27233333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>423.2527777777779</v>
       </c>
@@ -70895,6 +70979,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.57766666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>432.8061111111111</v>
       </c>
@@ -70949,6 +71036,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.4735</v>
       </c>
       <c r="C31" t="n">
         <v>429.165</v>
